--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -572,20 +572,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>The  month-over-month  percentage  change  in  total  digital  promotions  varies  significantly  across  specialty  groups.  For  example,  the  CARD  group  experienced  dramatic  fluctuations,  including  a  sharp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WITH MonthlySpecialtyPromotions AS ( SELECT
+  "PRIMARY_SPECIALTY_GROUP",
+  "MONTH_YEAR",
+  SUM("TOTAL_DIGITAL_PROMOTIONS") AS CurrentMonthPromotions
+FROM "mmm"."Segmentation_Master_Dataset"
+WHERE "PHYSICIAN_NPI_ID" IS NOT NULL AND "PHYSICIAN_NPI_ID" &lt;&gt; '' AND "PHYSICIAN_NPI_ID" &lt;&gt; '9999999999' AND "PHYSICIAN_SEGMENT" IS NOT NULL AND "PHYSICIAN_SEGMENT" &lt;&gt; '' AND UPPER("PHYSICIAN_SEGMENT") &lt;&gt; 'UNKNOWN' AND "PRIMARY_SPECIALTY_GROUP" IS NOT NULL AND "PRIMARY_SPECIALTY_GROUP" &lt;&gt; ''
+GROUP BY "PRIMARY_SPECIALTY_GROUP", "MONTH_YEAR" ), LaggedPromotions AS ( SELECT "PRIMARY_SPECIALTY_GROUP", "MONTH_YEAR", CurrentMonthPromotions, LAG(CurrentMonthPromotions, 1, 0) OVER (PARTITION BY "PRIMARY_SPECIALTY_GROUP"
+ORDER BY "MONTH_YEAR") AS PreviousMonthPromotions
+FROM MonthlySpecialtyPromotions ) SELECT "PRIMARY_SPECIALTY_GROUP", "MONTH_YEAR", CurrentMonthPromotions AS TotalDigitalPromotionsCurrentMonth, PreviousMonthPromotions AS TotalDigitalPromotionsPreviousMonth, CASE WHEN PreviousMonthPromotions = 0 THEN NULL -- Avoid division by zero; indicates no promotions in the previous month ELSE ROUND( ((CurrentMonthPromotions - PreviousMonthPromotions) * 100.0) / PreviousMonthPromotions, 2 ) END AS MoMPercentageChange
+FROM LaggedPromotions
+ORDER BY "PRIMARY_SPECIALTY_GROUP", "MONTH_YEAR";</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -604,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -636,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -668,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -700,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -732,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -764,7 +779,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -796,20 +811,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>The  provided  data  does  not  differentiate  between  face-to-face  and  virtual  calls,  nor  does  it  contain  time-series  information  to  analyze  trends  over  time.  Therefore,  I  cannot  directly  answer  how  F2F_CALLS  and  VIRTUAL_CALLS  relate  to  new  Cardizor  prescriptions  across  physician  segments  over  time.  The  available  data  only  shows  the  overall  'Calls'  contribution  impact  by  segment.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SQL query not available.</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -828,7 +848,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>⚠️ No response found</t>
+          <t>No response</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -847,6 +867,198 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Please provide the top 20 HCPs prescribing Cardizor, including the number of new prescriptions each has written, along with details of their respective various marketing channels.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No response</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Identify which specialty had the fastest TRx growth trend.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No response</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Which campaign (DeepIntent, Medscape, Relevate) showed increasing engagement over time?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No response</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Identify the competitor with the fastest TRx growth rate from Sep 2022 to Sep 2023.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No response</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Determine correlation between Tier level and total F2F calls.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>There  is  a</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Which states show underperformance relative to their physician count?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No response</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
